--- a/data/trans_bre/P15_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,47 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-25,54%</t>
+          <t>-29,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,87%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-14,01%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 10,61</t>
+          <t>-2,31; 11,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 3,5</t>
+          <t>-7,08; 2,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 5,19</t>
+          <t>-16,48; 4,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 9,6</t>
+          <t>-15,19; 8,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 6,15</t>
+          <t>-20,12; 7,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 197,15</t>
+          <t>-22,14; 213,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,31; 121,65</t>
+          <t>-74,03; 91,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 19,91</t>
+          <t>-42,09; 17,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 27,81</t>
+          <t>-30,55; 25,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 14,22</t>
+          <t>-37,35; 19,05</t>
         </is>
       </c>
     </row>
@@ -761,47 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,88%</t>
+          <t>-35,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,11%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-4,72%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 1,45</t>
+          <t>-11,85; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 4,46</t>
+          <t>-5,27; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 6,52</t>
+          <t>-14,87; 6,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 10,19</t>
+          <t>-10,24; 9,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 9,49</t>
+          <t>-16,24; 9,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,34; 18,06</t>
+          <t>-60,41; 13,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,52; 139,31</t>
+          <t>-62,07; 121,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 21,52</t>
+          <t>-33,71; 22,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 33,36</t>
+          <t>-23,01; 30,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 23,96</t>
+          <t>-29,08; 24,49</t>
         </is>
       </c>
     </row>
@@ -881,47 +881,47 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-7,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,99%</t>
+          <t>-12,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-14,58%</t>
+          <t>-14,55%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 4,18</t>
+          <t>-8,64; 3,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 6,26</t>
+          <t>-5,25; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 14,03</t>
+          <t>-1,61; 12,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 10,52</t>
+          <t>-7,04; 10,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 1,71</t>
+          <t>-16,77; 2,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 37,5</t>
+          <t>-42,83; 29,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,76; 100,25</t>
+          <t>-47,23; 76,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 66,53</t>
+          <t>-5,83; 59,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 29,19</t>
+          <t>-14,58; 27,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 3,92</t>
+          <t>-29,8; 6,28</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-27,67%</t>
+          <t>-26,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>-16,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>-1,83%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 5,51</t>
+          <t>-6,04; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 2,19</t>
+          <t>-6,54; 2,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 2,51</t>
+          <t>-12,38; 2,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 8,14</t>
+          <t>-7,62; 7,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 8,75</t>
+          <t>-11,0; 9,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 43,66</t>
+          <t>-31,99; 47,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,33; 39,51</t>
+          <t>-57,12; 40,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 9,13</t>
+          <t>-35,64; 7,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 23,25</t>
+          <t>-17,42; 20,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 22,06</t>
+          <t>-20,84; 22,68</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1141,27 +1141,27 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-49,65%</t>
+          <t>-45,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,52%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,95%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 5,53</t>
+          <t>-5,56; 5,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 0,28</t>
+          <t>-8,08; 1,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 6,01</t>
+          <t>-6,25; 6,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 4,55</t>
+          <t>-12,73; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 13,91</t>
+          <t>-6,43; 13,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 59,11</t>
+          <t>-38,19; 65,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-75,88; 14,35</t>
+          <t>-76,01; 33,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 33,77</t>
+          <t>-25,16; 38,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 17,1</t>
+          <t>-34,51; 12,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 43,45</t>
+          <t>-15,53; 41,11</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-16,93%</t>
+          <t>-16,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,22%</t>
+          <t>-39,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-9,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-26,16%</t>
+          <t>-25,8%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,27%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 2,92</t>
+          <t>-6,81; 3,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,31</t>
+          <t>-4,22; 1,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 5,07</t>
+          <t>-7,27; 4,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,84</t>
+          <t>-11,99; 1,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 13,79</t>
+          <t>-8,32; 13,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 44,4</t>
+          <t>-52,73; 44,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-88,09; 207,76</t>
+          <t>-89,15; 228,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,86; 57,32</t>
+          <t>-46,49; 45,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,22; 11,66</t>
+          <t>-52,18; 11,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 84,01</t>
+          <t>-32,02; 82,36</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1386,22 +1386,22 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-25,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>-7,22%</t>
         </is>
       </c>
     </row>
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,23</t>
+          <t>-3,43; 1,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,2</t>
+          <t>-3,55; 0,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,69</t>
+          <t>-5,58; 1,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 1,29</t>
+          <t>-6,06; 1,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 1,42</t>
+          <t>-8,02; 1,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 10,77</t>
+          <t>-23,91; 11,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 3,49</t>
+          <t>-45,13; 2,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 7,18</t>
+          <t>-19,27; 4,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 3,81</t>
+          <t>-16,01; 3,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 3,51</t>
+          <t>-17,94; 3,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
